--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_debug_menu.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_debug_menu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K273"/>
+  <dimension ref="A1:K279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,14 +510,34 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>main_menu</t>
+          <t>drama_menu</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>c_drama</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ドラマを再生</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ドラマを再生</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>drama_menu</t>
+          <t>battle_menu</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -527,24 +547,24 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>c_drama</t>
+          <t>c_battle</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ドラマを再生</t>
+          <t>バトルを開始</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>ドラマを再生</t>
+          <t>バトルを開始</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>battle_menu</t>
+          <t>flags_menu</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -554,24 +574,24 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>c_battle</t>
+          <t>c_flags</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>バトルを開始</t>
+          <t>フラグ操作</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>バトルを開始</t>
+          <t>フラグ操作</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>flags_menu</t>
+          <t>end</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -581,87 +601,107 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>c_flags</t>
+          <t>c_end</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>フラグ操作</t>
+          <t>終了</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>フラグ操作</t>
+          <t>終了</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>c_end</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>終了</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>終了</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>main_menu</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>debug_main</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>何をテストしますか？</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>何をテストしますか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
         <is>
           <t>drama_menu</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>drama_cat</t>
+          <t>c_drama_2</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ドラマカテゴリを選択してください。</t>
+          <t>ドラマを再生</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>ドラマカテゴリを選択してください。</t>
+          <t>ドラマを再生</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>drama_category</t>
+          <t>battle_menu</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>c_battle_2</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>バトルを開始</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>バトルを開始</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>drama_story</t>
+          <t>flags_menu</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -671,141 +711,161 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>c_drama_story</t>
+          <t>c_flags_2</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ストーリー</t>
+          <t>フラグ操作</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>ストーリー</t>
+          <t>フラグ操作</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>c_end_2</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>終了</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>終了</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>drama_menu</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>drama_cat</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ドラマカテゴリを選択してください。</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ドラマカテゴリを選択してください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>drama_story</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>c_drama_story</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ストーリー</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ストーリー</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
           <t>drama_rank</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>c_drama_rank</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>ランクアップ</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>ランクアップ</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>drama_char</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>c_drama_char</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>キャラクター</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>キャラクター</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>main_menu</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>c_drama_back</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>戻る</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>戻る</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>drama_story</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>drama_story_msg</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>再生するドラマを選択してください。</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>再生するドラマを選択してください。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>drama_story_choice</t>
+          <t>drama_char</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>c_drama_char</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>キャラクター</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>キャラクター</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>play_sukutsu_opening</t>
+          <t>main_menu</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -815,105 +875,60 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>c_play_sukutsu_opening</t>
+          <t>c_drama_back</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>オープニング</t>
+          <t>戻る</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Opening</t>
+          <t>戻る</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>play_upper_existence</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>c_play_upper_existence</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>上位存在</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Upper Existence</t>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>drama_story</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>play_makuma</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>c_play_makuma</t>
+          <t>drama_story_msg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>マクマ</t>
+          <t>再生するドラマを選択してください。</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Makuma</t>
+          <t>再生するドラマを選択してください。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>play_makuma2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>c_play_makuma2</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>マクマ2</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Makuma 2</t>
+          <t>drama_story_choice</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>play_last_battle</t>
+          <t>play_sukutsu_opening</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -923,101 +938,171 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>c_play_last_battle</t>
+          <t>c_play_sukutsu_opening</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>最終決戦</t>
+          <t>オープニング</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Last Battle</t>
+          <t>Opening</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
+          <t>play_upper_existence</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>c_play_upper_existence</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>上位存在</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Upper Existence</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>play_makuma</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>c_play_makuma</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>マクマ</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Makuma</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>play_makuma2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>c_play_makuma2</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>マクマ2</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Makuma 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>play_last_battle</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>c_play_last_battle</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>最終決戦</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Last Battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
           <t>drama_menu</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>c_back_drama_story</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>戻る</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Back</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>play_sukutsu_opening</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+    <row r="34">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_sukutsu_opening");</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_sukutsu_opening");</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>play_upper_existence</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1114,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_upper_existence");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_sukutsu_opening");</t>
         </is>
       </c>
     </row>
@@ -1041,33 +1126,33 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_upper_existence");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="D37" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>play_upper_existence</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>play_makuma</t>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_upper_existence");</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1164,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_makuma");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_upper_existence");</t>
         </is>
       </c>
     </row>
@@ -1091,33 +1176,33 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_makuma");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="D42" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>play_makuma</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>play_makuma2</t>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_makuma");</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1214,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_makuma2");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_makuma");</t>
         </is>
       </c>
     </row>
@@ -1141,33 +1226,33 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_makuma2");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="D47" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>play_makuma2</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>play_last_battle</t>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_makuma2");</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1264,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_last_battle");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_makuma2");</t>
         </is>
       </c>
     </row>
@@ -1191,177 +1276,107 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_last_battle");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="D52" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>play_last_battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_last_battle");</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_last_battle");</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="D53" t="inlineStr">
+    <row r="57">
+      <c r="D57" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>drama_rank</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="inlineStr">
+    <row r="59">
+      <c r="F59" t="inlineStr">
         <is>
           <t>sukutsu_debug_master</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>drama_rank_msg</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>再生するドラマを選択してください。</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>再生するドラマを選択してください。</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>drama_rank_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>play_rank_up_G</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>c_play_rank_up_G</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>ランクG昇格</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Rank G Trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>play_rank_up_F</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>c_play_rank_up_F</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>ランクF昇格</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Rank F Trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>play_rank_up_E</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>c_play_rank_up_E</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>ランクE昇格</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Rank E Trial</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>play_rank_up_D</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>c_play_rank_up_D</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>ランクD昇格</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Rank D Trial</t>
+          <t>drama_rank_choice</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>play_rank_up_C</t>
+          <t>play_rank_up_G</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1371,24 +1386,24 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>c_play_rank_up_C</t>
+          <t>c_play_rank_up_G</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>ランクC昇格</t>
+          <t>ランクG昇格</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Rank C Trial</t>
+          <t>Rank G Trial</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>play_rank_up_B</t>
+          <t>play_rank_up_F</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1398,24 +1413,24 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>c_play_rank_up_B</t>
+          <t>c_play_rank_up_F</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>ランクB昇格</t>
+          <t>ランクF昇格</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Rank B Trial</t>
+          <t>Rank F Trial</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>play_rank_up_A</t>
+          <t>play_rank_up_E</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1425,24 +1440,24 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>c_play_rank_up_A</t>
+          <t>c_play_rank_up_E</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>ランクA昇格</t>
+          <t>ランクE昇格</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Rank A Trial</t>
+          <t>Rank E Trial</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>play_vs_balgas</t>
+          <t>play_rank_up_D</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1452,24 +1467,24 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>c_play_vs_balgas</t>
+          <t>c_play_rank_up_D</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>vsバルガス</t>
+          <t>ランクD昇格</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>vs Balgas</t>
+          <t>Rank D Trial</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>play_vs_grandmaster_1</t>
+          <t>play_rank_up_C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1479,101 +1494,171 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>c_play_vs_grandmaster_1</t>
+          <t>c_play_rank_up_C</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>vsグランドマスター</t>
+          <t>ランクC昇格</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>vs Grandmaster</t>
+          <t>Rank C Trial</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
+          <t>play_rank_up_B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>c_play_rank_up_B</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ランクB昇格</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Rank B Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>play_rank_up_A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>c_play_rank_up_A</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>ランクA昇格</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Rank A Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>play_vs_balgas</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>c_play_vs_balgas</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>vsバルガス</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>vs Balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>play_vs_grandmaster_1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>c_play_vs_grandmaster_1</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>vsグランドマスター</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>vs Grandmaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
           <t>drama_menu</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>c_back_drama_rank</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>戻る</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>Back</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>play_rank_up_G</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
+    <row r="72">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_G");</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_G");</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>play_rank_up_F</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1670,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_F");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_G");</t>
         </is>
       </c>
     </row>
@@ -1597,33 +1682,33 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_F");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="D75" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>play_rank_up_F</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>play_rank_up_E</t>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_F");</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1720,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_E");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_F");</t>
         </is>
       </c>
     </row>
@@ -1647,33 +1732,33 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_E");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="D80" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>play_rank_up_E</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>play_rank_up_D</t>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_E");</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1770,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_D");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_E");</t>
         </is>
       </c>
     </row>
@@ -1697,33 +1782,33 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_D");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="D85" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>play_rank_up_D</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>play_rank_up_C</t>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_D");</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1820,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_C");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_D");</t>
         </is>
       </c>
     </row>
@@ -1747,33 +1832,33 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_C");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="D90" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>play_rank_up_C</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>play_rank_up_B</t>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_C");</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1870,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_B");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_C");</t>
         </is>
       </c>
     </row>
@@ -1797,33 +1882,33 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_B");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="D95" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>play_rank_up_B</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>play_rank_up_A</t>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_B");</t>
         </is>
       </c>
     </row>
@@ -1835,7 +1920,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_A");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_B");</t>
         </is>
       </c>
     </row>
@@ -1847,33 +1932,33 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_A");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="D100" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>play_rank_up_A</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>play_vs_balgas</t>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_A");</t>
         </is>
       </c>
     </row>
@@ -1885,7 +1970,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_vs_balgas");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_A");</t>
         </is>
       </c>
     </row>
@@ -1897,33 +1982,33 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_vs_balgas");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="D105" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>play_vs_balgas</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>play_vs_grandmaster_1</t>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_vs_balgas");</t>
         </is>
       </c>
     </row>
@@ -1935,7 +2020,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_vs_grandmaster_1");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_vs_balgas");</t>
         </is>
       </c>
     </row>
@@ -1947,177 +2032,107 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_vs_grandmaster_1");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="D110" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>play_vs_grandmaster_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_vs_grandmaster_1");</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_vs_grandmaster_1");</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="D111" t="inlineStr">
+    <row r="115">
+      <c r="D115" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>drama_char</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="F113" t="inlineStr">
+    <row r="117">
+      <c r="F117" t="inlineStr">
         <is>
           <t>sukutsu_debug_master</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>drama_char_msg</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>再生するドラマを選択してください。</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>再生するドラマを選択してください。</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>drama_char_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>play_zek_intro</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>c_play_zek_intro</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>ゼク登場</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Zek Intro</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>play_zek_steal_bottle</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>c_play_zek_steal_bottle</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>ボトル交換</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Bottle Swap</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>play_zek_steal_soulgem</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>c_play_zek_steal_soulgem</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>魂宝石選択</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Soul Gem Choice</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>play_lily_experiment</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>c_play_lily_experiment</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>リリィ実験</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Lily Experiment</t>
+          <t>drama_char_choice</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>play_lily_private</t>
+          <t>play_zek_intro</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2127,24 +2142,24 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>c_play_lily_private</t>
+          <t>c_play_zek_intro</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>リリィ私室</t>
+          <t>ゼク登場</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Lily Private</t>
+          <t>Zek Intro</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>play_lily_real_name</t>
+          <t>play_zek_steal_bottle</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2154,24 +2169,24 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>c_play_lily_real_name</t>
+          <t>c_play_zek_steal_bottle</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>リリィ真名</t>
+          <t>ボトル交換</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Lily Real Name</t>
+          <t>Bottle Swap</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>play_balgas_training</t>
+          <t>play_zek_steal_soulgem</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2181,101 +2196,171 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>c_play_balgas_training</t>
+          <t>c_play_zek_steal_soulgem</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>バルガス訓練</t>
+          <t>魂宝石選択</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Balgas Training</t>
+          <t>Soul Gem Choice</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
+          <t>play_lily_experiment</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>c_play_lily_experiment</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>リリィ実験</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Lily Experiment</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>play_lily_private</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>c_play_lily_private</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>リリィ私室</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Lily Private</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>play_lily_real_name</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>c_play_lily_real_name</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>リリィ真名</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Lily Real Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>play_balgas_training</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>c_play_balgas_training</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>バルガス訓練</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Balgas Training</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
           <t>drama_menu</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
         <is>
           <t>c_back_drama_char</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>戻る</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>Back</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>play_zek_intro</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
+    <row r="128">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_intro");</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_intro");</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>play_zek_steal_bottle</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2372,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_bottle");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_intro");</t>
         </is>
       </c>
     </row>
@@ -2299,33 +2384,33 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_steal_bottle");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="D131" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>play_zek_steal_bottle</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>play_zek_steal_soulgem</t>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_bottle");</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2422,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_soulgem");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_steal_bottle");</t>
         </is>
       </c>
     </row>
@@ -2349,33 +2434,33 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_steal_soulgem");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="D136" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>play_zek_steal_soulgem</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>play_lily_experiment</t>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_soulgem");</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2472,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_lily_experiment");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_steal_soulgem");</t>
         </is>
       </c>
     </row>
@@ -2399,33 +2484,33 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_lily_experiment");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="D141" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>play_lily_experiment</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>play_lily_private</t>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_lily_experiment");</t>
         </is>
       </c>
     </row>
@@ -2437,7 +2522,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_lily_private");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_lily_experiment");</t>
         </is>
       </c>
     </row>
@@ -2449,33 +2534,33 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_lily_private");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="D146" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>play_lily_private</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>play_lily_real_name</t>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_lily_private");</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2572,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_lily_real_name");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_lily_private");</t>
         </is>
       </c>
     </row>
@@ -2499,33 +2584,33 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_lily_real_name");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="D151" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>end</t>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>play_lily_real_name</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>play_balgas_training</t>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_lily_real_name");</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2622,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_balgas_training");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_lily_real_name");</t>
         </is>
       </c>
     </row>
@@ -2549,150 +2634,100 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_balgas_training");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="D156" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>play_balgas_training</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_balgas_training");</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_balgas_training");</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
         <is>
           <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="D157" t="inlineStr">
+    <row r="161">
+      <c r="D161" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>battle_menu</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="F159" t="inlineStr">
+    <row r="163">
+      <c r="F163" t="inlineStr">
         <is>
           <t>sukutsu_debug_master</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>battle_cat</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
+      <c r="I163" t="inlineStr">
         <is>
           <t>バトルカテゴリを選択してください。</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr">
+      <c r="J163" t="inlineStr">
         <is>
           <t>バトルカテゴリを選択してください。</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>battle_category</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>battle_rank</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>c_battle_rank</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>ランクアップ試練</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>ランクアップ試練</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>battle_normal</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>c_battle_normal</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>通常バトル</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>通常バトル</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>battle_debug</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>c_battle_debug</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>デバッグバトル</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>デバッグバトル</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>main_menu</t>
+          <t>battle_rank</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -2702,141 +2737,141 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>c_battle_back</t>
+          <t>c_battle_rank</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>ランクアップ試練</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>戻る</t>
+          <t>ランクアップ試練</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>battle_rank</t>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>battle_normal</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>c_battle_normal</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>通常バトル</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>通常バトル</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>battle_debug</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>battle_rank_msg</t>
+          <t>c_battle_debug</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>バトルを選択してください。</t>
+          <t>デバッグバトル</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>バトルを選択してください。</t>
+          <t>デバッグバトル</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>battle_rank_choice</t>
+          <t>main_menu</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>c_battle_back</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>戻る</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>戻る</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>fight_rank_g_trial</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>c_fight_rank_g_trial</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>屑肉の洗礼</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>Baptism of Scrap Meat</t>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>battle_rank</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>fight_rank_f_trial</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>c_fight_rank_f_trial</t>
+          <t>battle_rank_msg</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>泥犬の牙</t>
+          <t>バトルを選択してください。</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Fangs of the Mud Dog</t>
+          <t>バトルを選択してください。</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>fight_rank_e_trial</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>c_fight_rank_e_trial</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>錆びついた英雄</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>The Rusty Hero</t>
+          <t>battle_rank_choice</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>fight_rank_d_trial</t>
+          <t>fight_rank_g_trial</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -2846,24 +2881,24 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>c_fight_rank_d_trial</t>
+          <t>c_fight_rank_g_trial</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>銅貨稼ぎの洗礼</t>
+          <t>屑肉の洗礼</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Copper Earner's Baptism</t>
+          <t>Baptism of Scrap Meat</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>fight_rank_c_trial</t>
+          <t>fight_rank_f_trial</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -2873,24 +2908,24 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>c_fight_rank_c_trial</t>
+          <t>c_fight_rank_f_trial</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>闘技場の鴉</t>
+          <t>霜牙の試練</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Ravens of the Coliseum</t>
+          <t>Trial of the Frostfang</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>fight_rank_b_trial</t>
+          <t>fight_rank_e_trial</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -2900,24 +2935,24 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>c_fight_rank_b_trial</t>
+          <t>c_fight_rank_e_trial</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>虚無の処刑人</t>
+          <t>錆びついた英雄</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Void Executioner Null</t>
+          <t>The Rusty Hero</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>fight_rank_a_trial</t>
+          <t>fight_rank_d_trial</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -2927,24 +2962,24 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>c_fight_rank_a_trial</t>
+          <t>c_fight_rank_d_trial</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>黄金の戦鬼</t>
+          <t>観客の代弁者</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Golden War Demon</t>
+          <t>Voice of the Audience</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>fight_rank_s_trial</t>
+          <t>fight_rank_c_trial</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -2954,24 +2989,24 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>c_fight_rank_s_trial</t>
+          <t>c_fight_rank_c_trial</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>屠竜者への道</t>
+          <t>闘技場の鴉</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Path to Dragon Slayer</t>
+          <t>Ravens of the Coliseum</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>fight_final_astaroth</t>
+          <t>fight_rank_b_trial</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -2981,77 +3016,132 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>c_fight_final_astaroth</t>
+          <t>c_fight_rank_b_trial</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>竜神との対峙</t>
+          <t>虚無の処刑人</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Confrontation with the Dragon God</t>
+          <t>Void Executioner Null</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
+          <t>fight_rank_a_trial</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>c_fight_rank_a_trial</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>黄金の戦鬼</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Golden War Demon</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>fight_rank_s_trial</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>c_fight_rank_s_trial</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>屠竜者への道</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Path to Dragon Slayer</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>fight_final_astaroth</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>c_fight_final_astaroth</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>竜神との対峙</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Confrontation with the Dragon God</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="inlineStr">
+        <is>
           <t>battle_menu</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
         <is>
           <t>c_back_battle_rank</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
+      <c r="I180" t="inlineStr">
         <is>
           <t>戻る</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr">
+      <c r="J180" t="inlineStr">
         <is>
           <t>Back</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>fight_rank_g_trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", tg);</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>end</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>fight_rank_f_trial</t>
+          <t>fight_rank_g_trial</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3153,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3167,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>fight_rank_e_trial</t>
+          <t>fight_rank_f_trial</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3179,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_e_trial", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3193,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>fight_rank_d_trial</t>
+          <t>fight_rank_e_trial</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3205,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_e_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3219,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>fight_rank_c_trial</t>
+          <t>fight_rank_d_trial</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3231,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_c_trial", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3245,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>fight_rank_b_trial</t>
+          <t>fight_rank_c_trial</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3257,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_b_trial", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_c_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3271,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>fight_rank_a_trial</t>
+          <t>fight_rank_b_trial</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3283,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_a_trial", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_b_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3297,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>fight_rank_s_trial</t>
+          <t>fight_rank_a_trial</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3309,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_s_trial", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_a_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3233,7 +3323,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>fight_final_astaroth</t>
+          <t>fight_rank_s_trial</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3335,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("final_astaroth", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_s_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3259,124 +3349,69 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
+          <t>fight_final_astaroth</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("final_astaroth", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
           <t>battle_normal</t>
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="F206" t="inlineStr">
+    <row r="209">
+      <c r="F209" t="inlineStr">
         <is>
           <t>sukutsu_debug_master</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>battle_normal_msg</t>
         </is>
       </c>
-      <c r="I206" t="inlineStr">
+      <c r="I209" t="inlineStr">
         <is>
           <t>バトルを選択してください。</t>
         </is>
       </c>
-      <c r="J206" t="inlineStr">
+      <c r="J209" t="inlineStr">
         <is>
           <t>バトルを選択してください。</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>battle_normal_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>fight_stage_1</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>c_fight_stage_1</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>森の狼</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>Forest Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>fight_stage_2</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>c_fight_stage_2</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>ケンタウロス</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>Centaur</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>fight_stage_3</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>c_fight_stage_3</t>
-        </is>
-      </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>ミノタウロス</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Minotaur</t>
+          <t>battle_normal_choice</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>fight_stage_4</t>
+          <t>fight_stage_1</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -3386,24 +3421,24 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>c_fight_stage_4</t>
+          <t>c_fight_stage_1</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>竜との対峙</t>
+          <t>森の狼</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Dragon Confrontation</t>
+          <t>Forest Wolf</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>fight_upper_existence_battle</t>
+          <t>fight_stage_2</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -3413,744 +3448,799 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>c_fight_upper_existence_battle</t>
+          <t>c_fight_stage_2</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>見えざる観客の供物</t>
+          <t>ケンタウロス</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Offering to the Unseen Audience</t>
+          <t>Centaur</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
+          <t>fight_stage_3</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>c_fight_stage_3</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>ミノタウロス</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Minotaur</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>fight_stage_4</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>c_fight_stage_4</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>竜との対峙</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Dragon Confrontation</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>fight_balgas_training_battle</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>c_fight_balgas_training_battle</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>戦士の哲学</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Warrior's Philosophy</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>fight_upper_existence_battle</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>c_fight_upper_existence_battle</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>見えざる観客の供物</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Offering to the Unseen Audience</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="inlineStr">
+        <is>
           <t>battle_menu</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
         <is>
           <t>c_back_battle_normal</t>
         </is>
       </c>
-      <c r="I213" t="inlineStr">
+      <c r="I217" t="inlineStr">
         <is>
           <t>戻る</t>
         </is>
       </c>
-      <c r="J213" t="inlineStr">
+      <c r="J217" t="inlineStr">
         <is>
           <t>Back</t>
         </is>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+    <row r="218">
+      <c r="A218" t="inlineStr">
         <is>
           <t>fight_stage_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_1", tg);</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>fight_stage_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_2", tg);</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="D219" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_1", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="D220" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>fight_stage_3</t>
-        </is>
-      </c>
-    </row>
     <row r="221">
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_3", tg);</t>
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>fight_stage_2</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="D222" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_2", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="D223" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>fight_stage_4</t>
-        </is>
-      </c>
-    </row>
     <row r="224">
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_4", tg);</t>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>fight_stage_3</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="D225" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_3", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="D226" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>fight_upper_existence_battle</t>
-        </is>
-      </c>
-    </row>
     <row r="227">
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("upper_existence_battle", tg);</t>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>fight_stage_4</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="D228" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_4", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="D229" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>fight_balgas_training_battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("balgas_training_battle", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>fight_upper_existence_battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("upper_existence_battle", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
         <is>
           <t>battle_debug</t>
         </is>
       </c>
     </row>
-    <row r="230">
-      <c r="F230" t="inlineStr">
+    <row r="237">
+      <c r="F237" t="inlineStr">
         <is>
           <t>sukutsu_debug_master</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
+      <c r="H237" t="inlineStr">
         <is>
           <t>battle_debug_msg</t>
         </is>
       </c>
-      <c r="I230" t="inlineStr">
+      <c r="I237" t="inlineStr">
         <is>
           <t>バトルを選択してください。</t>
         </is>
       </c>
-      <c r="J230" t="inlineStr">
+      <c r="J237" t="inlineStr">
         <is>
           <t>バトルを選択してください。</t>
         </is>
       </c>
     </row>
-    <row r="231">
-      <c r="B231" t="inlineStr">
+    <row r="238">
+      <c r="B238" t="inlineStr">
         <is>
           <t>battle_debug_choice</t>
         </is>
       </c>
     </row>
-    <row r="232">
-      <c r="B232" t="inlineStr">
+    <row r="239">
+      <c r="B239" t="inlineStr">
         <is>
           <t>fight_debug_weak</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H232" t="inlineStr">
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>c_fight_debug_weak</t>
         </is>
       </c>
-      <c r="I232" t="inlineStr">
+      <c r="I239" t="inlineStr">
         <is>
           <t>[DEBUG] 弱い敵</t>
         </is>
       </c>
-      <c r="J232" t="inlineStr">
+      <c r="J239" t="inlineStr">
         <is>
           <t>[DEBUG] Weak Enemy</t>
         </is>
       </c>
     </row>
-    <row r="233">
-      <c r="B233" t="inlineStr">
+    <row r="240">
+      <c r="B240" t="inlineStr">
         <is>
           <t>fight_debug_strong</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>c_fight_debug_strong</t>
         </is>
       </c>
-      <c r="I233" t="inlineStr">
+      <c r="I240" t="inlineStr">
         <is>
           <t>[DEBUG] 強い敵</t>
         </is>
       </c>
-      <c r="J233" t="inlineStr">
+      <c r="J240" t="inlineStr">
         <is>
           <t>[DEBUG] Strong Enemy</t>
         </is>
       </c>
     </row>
-    <row r="234">
-      <c r="B234" t="inlineStr">
+    <row r="241">
+      <c r="B241" t="inlineStr">
         <is>
           <t>fight_debug_horde</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
         <is>
           <t>c_fight_debug_horde</t>
         </is>
       </c>
-      <c r="I234" t="inlineStr">
+      <c r="I241" t="inlineStr">
         <is>
           <t>[DEBUG] 敵の群れ</t>
         </is>
       </c>
-      <c r="J234" t="inlineStr">
+      <c r="J241" t="inlineStr">
         <is>
           <t>[DEBUG] Enemy Horde</t>
         </is>
       </c>
     </row>
-    <row r="235">
-      <c r="B235" t="inlineStr">
+    <row r="242">
+      <c r="B242" t="inlineStr">
         <is>
           <t>fight_debug_gimmick</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
         <is>
           <t>c_fight_debug_gimmick</t>
         </is>
       </c>
-      <c r="I235" t="inlineStr">
+      <c r="I242" t="inlineStr">
         <is>
           <t>[DEBUG] ギミックテスト</t>
         </is>
       </c>
-      <c r="J235" t="inlineStr">
+      <c r="J242" t="inlineStr">
         <is>
           <t>[DEBUG] Gimmick Test</t>
         </is>
       </c>
     </row>
-    <row r="236">
-      <c r="B236" t="inlineStr">
+    <row r="243">
+      <c r="B243" t="inlineStr">
         <is>
           <t>battle_menu</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
         <is>
           <t>c_back_battle_debug</t>
         </is>
       </c>
-      <c r="I236" t="inlineStr">
+      <c r="I243" t="inlineStr">
         <is>
           <t>戻る</t>
         </is>
       </c>
-      <c r="J236" t="inlineStr">
+      <c r="J243" t="inlineStr">
         <is>
           <t>Back</t>
         </is>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t>fight_debug_weak</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_weak", tg);</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>fight_debug_strong</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_strong", tg);</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>fight_debug_horde</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_horde", tg);</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="D245" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_weak", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="D246" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>fight_debug_gimmick</t>
-        </is>
-      </c>
-    </row>
     <row r="247">
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_gimmick", tg);</t>
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>fight_debug_strong</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="D248" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_strong", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="D249" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>flags_menu</t>
-        </is>
-      </c>
-    </row>
     <row r="250">
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>flags_info</t>
-        </is>
-      </c>
-      <c r="I250" t="inlineStr">
-        <is>
-          <t>フラグ操作を選択してください。</t>
-        </is>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>フラグ操作を選択してください。</t>
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>fight_debug_horde</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>flags_choice</t>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_horde", tg);</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>set_rank_s</t>
-        </is>
-      </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>c_set_rank_s</t>
-        </is>
-      </c>
-      <c r="I252" t="inlineStr">
-        <is>
-          <t>ランクSに設定</t>
-        </is>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>ランクSに設定</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>set_all_quests</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>c_set_quests</t>
-        </is>
-      </c>
-      <c r="I253" t="inlineStr">
-        <is>
-          <t>全クエスト完了</t>
-        </is>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>全クエスト完了</t>
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>fight_debug_gimmick</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>set_relations</t>
-        </is>
-      </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>c_set_relations</t>
-        </is>
-      </c>
-      <c r="I254" t="inlineStr">
-        <is>
-          <t>関係値MAX</t>
-        </is>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>関係値MAX</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_gimmick", tg);</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>main_menu</t>
-        </is>
-      </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>c_flags_back</t>
-        </is>
-      </c>
-      <c r="I255" t="inlineStr">
-        <is>
-          <t>戻る</t>
-        </is>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>戻る</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
+          <t>flags_menu</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>flags_info</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>フラグ操作を選択してください。</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>フラグ操作を選択してください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="inlineStr">
+        <is>
           <t>set_rank_s</t>
         </is>
       </c>
-    </row>
-    <row r="257">
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.rank,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
       <c r="D258" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>sukutsu_gladiator,1</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>c_set_rank_s</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>ランクSに設定</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>ランクSに設定</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>set_all_quests</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>rank_set</t>
+          <t>c_set_quests</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>ランクをSに設定しました。</t>
+          <t>全クエスト完了</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>ランクをSに設定しました。</t>
+          <t>全クエスト完了</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
+          <t>set_relations</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>c_set_relations</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>関係値MAX</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>関係値MAX</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>main_menu</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>c_flags_back</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>戻る</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>戻る</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>set_rank_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>sukutsu_gladiator,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>rank_set</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>ランクをSに設定しました。</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>ランクをSに設定しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="inlineStr">
+        <is>
           <t>flags_menu</t>
         </is>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
+    <row r="267">
+      <c r="A267" t="inlineStr">
         <is>
           <t>set_all_quests</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaQuestManager.Instance.DebugCompleteAllQuests();</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>quests_set</t>
-        </is>
-      </c>
-      <c r="I263" t="inlineStr">
-        <is>
-          <t>全クエストを完了しました。</t>
-        </is>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>全クエストを完了しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>flags_menu</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>set_relations</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.lily,100</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.balgas,100</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="D268" t="inlineStr">
         <is>
-          <t>setFlag</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>chitsii.arena.rel.zek,100</t>
+          <t>Elin_SukutsuArena.ArenaQuestManager.Instance.DebugCompleteAllQuests();</t>
         </is>
       </c>
     </row>
@@ -4162,17 +4252,17 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>rel_set</t>
+          <t>quests_set</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>全関係値を100に設定しました。</t>
+          <t>全クエストを完了しました。</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>全関係値を100に設定しました。</t>
+          <t>全クエストを完了しました。</t>
         </is>
       </c>
     </row>
@@ -4186,34 +4276,106 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>set_relations</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>debug_bye</t>
-        </is>
-      </c>
-      <c r="I272" t="inlineStr">
-        <is>
-          <t>デバッグメニューを終了します。</t>
-        </is>
-      </c>
-      <c r="J272" t="inlineStr">
-        <is>
-          <t>デバッグメニューを終了します。</t>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.lily,100</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="D273" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.balgas,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>chitsii.arena.rel.zek,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>rel_set</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>全関係値を100に設定しました。</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>全関係値を100に設定しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>flags_menu</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>debug_bye</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>デバッグメニューを終了します。</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>デバッグメニューを終了します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="D279" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_debug_menu.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_debug_menu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K279"/>
+  <dimension ref="A1:K276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4281,38 +4281,38 @@
       </c>
     </row>
     <row r="272">
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.lily,100</t>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>rel_set</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>（旧システム: 関係値は削除されました）</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>（旧システム: 関係値は削除されました）</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.balgas,100</t>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>flags_menu</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>chitsii.arena.rel.zek,100</t>
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>end</t>
         </is>
       </c>
     </row>
@@ -4324,58 +4324,22 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>rel_set</t>
+          <t>debug_bye</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>全関係値を100に設定しました。</t>
+          <t>デバッグメニューを終了します。</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>全関係値を100に設定しました。</t>
+          <t>デバッグメニューを終了します。</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>flags_menu</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>debug_bye</t>
-        </is>
-      </c>
-      <c r="I278" t="inlineStr">
-        <is>
-          <t>デバッグメニューを終了します。</t>
-        </is>
-      </c>
-      <c r="J278" t="inlineStr">
-        <is>
-          <t>デバッグメニューを終了します。</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="D279" t="inlineStr">
+      <c r="D276" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_debug_menu.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_debug_menu.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K276"/>
+  <dimension ref="A1:K314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1063,46 +1063,61 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
+          <t>play_epilogue</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>c_play_epilogue</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>エピローグ</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Epilogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
           <t>drama_menu</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>c_back_drama_story</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>戻る</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Back</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>play_sukutsu_opening</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_sukutsu_opening");</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1129,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_sukutsu_opening");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_sukutsu_opening");</t>
         </is>
       </c>
     </row>
@@ -1126,33 +1141,33 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_sukutsu_opening");</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="D37" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>play_upper_existence</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_upper_existence");</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1179,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_upper_existence");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_upper_existence");</t>
         </is>
       </c>
     </row>
@@ -1176,33 +1191,33 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_upper_existence");</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="D42" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>play_makuma</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_makuma");</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1229,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_makuma");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_makuma");</t>
         </is>
       </c>
     </row>
@@ -1226,33 +1241,33 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_makuma");</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="D47" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>play_makuma2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_makuma2");</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1279,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_makuma2");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_makuma2");</t>
         </is>
       </c>
     </row>
@@ -1276,33 +1291,33 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_makuma2");</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="D52" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>play_last_battle</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_last_battle");</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1329,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_last_battle");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_last_battle");</t>
         </is>
       </c>
     </row>
@@ -1326,219 +1341,119 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_last_battle");</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="D57" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>play_epilogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_epilogue");</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_epilogue");</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>drama_rank</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="F59" t="inlineStr">
+    <row r="65">
+      <c r="F65" t="inlineStr">
         <is>
           <t>sukutsu_debug_master</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>drama_rank_msg</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>再生するドラマを選択してください。</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>再生するドラマを選択してください。</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>drama_rank_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>play_rank_up_G</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>c_play_rank_up_G</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>ランクG昇格</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Rank G Trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>play_rank_up_F</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>c_play_rank_up_F</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>ランクF昇格</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Rank F Trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>play_rank_up_E</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>c_play_rank_up_E</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>ランクE昇格</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Rank E Trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>play_rank_up_D</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>c_play_rank_up_D</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>ランクD昇格</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Rank D Trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>play_rank_up_C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>c_play_rank_up_C</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>ランクC昇格</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Rank C Trial</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>play_rank_up_B</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>c_play_rank_up_B</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>ランクB昇格</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Rank B Trial</t>
+          <t>drama_rank_choice</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>play_rank_up_A</t>
+          <t>play_rank_up_G</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1548,24 +1463,24 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>c_play_rank_up_A</t>
+          <t>c_play_rank_up_G</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>ランクA昇格</t>
+          <t>ランクG昇格</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Rank A Trial</t>
+          <t>Rank G Trial</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>play_vs_balgas</t>
+          <t>play_rank_up_F</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1575,24 +1490,24 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>c_play_vs_balgas</t>
+          <t>c_play_rank_up_F</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>vsバルガス</t>
+          <t>ランクF昇格</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>vs Balgas</t>
+          <t>Rank F Trial</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>play_vs_grandmaster_1</t>
+          <t>play_rank_up_E</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1602,113 +1517,213 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>c_play_vs_grandmaster_1</t>
+          <t>c_play_rank_up_E</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>vsグランドマスター</t>
+          <t>ランクE昇格</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>vs Grandmaster</t>
+          <t>Rank E Trial</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
+          <t>play_rank_up_D</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>c_play_rank_up_D</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>ランクD昇格</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Rank D Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>play_rank_up_C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>c_play_rank_up_C</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>ランクC昇格</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Rank C Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>play_rank_up_B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>c_play_rank_up_B</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>ランクB昇格</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Rank B Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>play_rank_up_A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>c_play_rank_up_A</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>ランクA昇格</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Rank A Trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>play_vs_balgas</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>c_play_vs_balgas</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>vsバルガス</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>vs Balgas</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>play_vs_astaroth</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>c_play_vs_astaroth</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>vsアスタロト</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>vs Astaroth</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
           <t>drama_menu</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>c_back_drama_rank</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>戻る</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>Back</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>play_rank_up_G</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_G");</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_G");</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>play_rank_up_F</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_F");</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1735,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_F");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_G");</t>
         </is>
       </c>
     </row>
@@ -1732,33 +1747,33 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_G");</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="D80" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>play_rank_up_E</t>
-        </is>
-      </c>
-    </row>
     <row r="82">
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_E");</t>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>play_rank_up_F</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1785,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_E");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_F");</t>
         </is>
       </c>
     </row>
@@ -1782,33 +1797,33 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_F");</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="D85" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>play_rank_up_D</t>
-        </is>
-      </c>
-    </row>
     <row r="87">
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_D");</t>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>play_rank_up_E</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1835,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_D");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_E");</t>
         </is>
       </c>
     </row>
@@ -1832,33 +1847,33 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_E");</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="D90" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>play_rank_up_C</t>
-        </is>
-      </c>
-    </row>
     <row r="92">
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_C");</t>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>play_rank_up_D</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1885,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_C");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_D");</t>
         </is>
       </c>
     </row>
@@ -1882,33 +1897,33 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_D");</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="D95" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>play_rank_up_B</t>
-        </is>
-      </c>
-    </row>
     <row r="97">
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_B");</t>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>play_rank_up_C</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1935,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_B");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_C");</t>
         </is>
       </c>
     </row>
@@ -1932,33 +1947,33 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_C");</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="D100" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>play_rank_up_A</t>
-        </is>
-      </c>
-    </row>
     <row r="102">
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_A");</t>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>play_rank_up_B</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1985,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_A");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_B");</t>
         </is>
       </c>
     </row>
@@ -1982,33 +1997,33 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_B");</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="D105" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="D106" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>play_vs_balgas</t>
-        </is>
-      </c>
-    </row>
     <row r="107">
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_vs_balgas");</t>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>play_rank_up_A</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2035,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_vs_balgas");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_rank_up_A");</t>
         </is>
       </c>
     </row>
@@ -2032,33 +2047,33 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_rank_up_A");</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="D110" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="D111" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>play_vs_grandmaster_1</t>
-        </is>
-      </c>
-    </row>
     <row r="112">
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_vs_grandmaster_1");</t>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>play_vs_balgas</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2085,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_vs_grandmaster_1");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_vs_balgas");</t>
         </is>
       </c>
     </row>
@@ -2082,219 +2097,119 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_vs_balgas");</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="D115" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="D116" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>play_vs_astaroth</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_vs_astaroth");</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_vs_astaroth");</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>drama_char</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="F117" t="inlineStr">
+    <row r="123">
+      <c r="F123" t="inlineStr">
         <is>
           <t>sukutsu_debug_master</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>drama_char_msg</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>再生するドラマを選択してください。</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>再生するドラマを選択してください。</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>drama_char_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>play_zek_intro</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>c_play_zek_intro</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>ゼク登場</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Zek Intro</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>play_zek_steal_bottle</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>c_play_zek_steal_bottle</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>ボトル交換</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Bottle Swap</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>play_zek_steal_soulgem</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>c_play_zek_steal_soulgem</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>魂宝石選択</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Soul Gem Choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>play_lily_experiment</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>c_play_lily_experiment</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>リリィ実験</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Lily Experiment</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>play_lily_private</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>c_play_lily_private</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>リリィ私室</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Lily Private</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>play_lily_real_name</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>c_play_lily_real_name</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>リリィ真名</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Lily Real Name</t>
+          <t>drama_char_choice</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>play_balgas_training</t>
+          <t>play_zek_intro</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2304,113 +2219,213 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>c_play_balgas_training</t>
+          <t>c_play_zek_intro</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>バルガス訓練</t>
+          <t>ゼク登場</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Balgas Training</t>
+          <t>Zek Intro</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
+          <t>play_zek_steal_bottle</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>c_play_zek_steal_bottle</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>ボトル交換</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Bottle Swap</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>play_zek_steal_soulgem</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>c_play_zek_steal_soulgem</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>魂宝石選択</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Soul Gem Choice</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>play_lily_experiment</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>c_play_lily_experiment</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>リリィ実験</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Lily Experiment</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>play_lily_private</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>c_play_lily_private</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>リリィ私室</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Lily Private</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>play_lily_real_name</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>c_play_lily_real_name</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>リリィ真名</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Lily Real Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>play_balgas_training</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>c_play_balgas_training</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>バルガス訓練</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Balgas Training</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="inlineStr">
+        <is>
           <t>drama_menu</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
         <is>
           <t>c_back_drama_char</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>戻る</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>Back</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>play_zek_intro</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_intro");</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_intro");</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>play_zek_steal_bottle</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_bottle");</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2437,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_steal_bottle");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_intro");</t>
         </is>
       </c>
     </row>
@@ -2434,33 +2449,33 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_intro");</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="D136" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="D137" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>play_zek_steal_soulgem</t>
-        </is>
-      </c>
-    </row>
     <row r="138">
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_soulgem");</t>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>play_zek_steal_bottle</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2487,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_steal_soulgem");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_bottle");</t>
         </is>
       </c>
     </row>
@@ -2484,33 +2499,33 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_steal_bottle");</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="D141" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="D142" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>play_lily_experiment</t>
-        </is>
-      </c>
-    </row>
     <row r="143">
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_lily_experiment");</t>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>play_zek_steal_soulgem</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2537,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_lily_experiment");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_zek_steal_soulgem");</t>
         </is>
       </c>
     </row>
@@ -2534,33 +2549,33 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_zek_steal_soulgem");</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="D146" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="D147" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>play_lily_private</t>
-        </is>
-      </c>
-    </row>
     <row r="148">
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_lily_private");</t>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>play_lily_experiment</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2587,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_lily_private");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_lily_experiment");</t>
         </is>
       </c>
     </row>
@@ -2584,33 +2599,33 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_lily_experiment");</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="D151" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="D152" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>play_lily_real_name</t>
-        </is>
-      </c>
-    </row>
     <row r="153">
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_lily_real_name");</t>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>play_lily_private</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2637,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_lily_real_name");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_lily_private");</t>
         </is>
       </c>
     </row>
@@ -2634,33 +2649,33 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_lily_private");</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="D156" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="D157" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>play_balgas_training</t>
-        </is>
-      </c>
-    </row>
     <row r="158">
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_balgas_training");</t>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>play_lily_real_name</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2687,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_balgas_training");</t>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_lily_real_name");</t>
         </is>
       </c>
     </row>
@@ -2684,158 +2699,83 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_lily_real_name");</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="D161" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="D162" t="inlineStr">
+        <is>
           <t>end</t>
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>battle_menu</t>
-        </is>
-      </c>
-    </row>
     <row r="163">
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>battle_cat</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>バトルカテゴリを選択してください。</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>バトルカテゴリを選択してください。</t>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>play_balgas_training</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>battle_rank</t>
-        </is>
-      </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>c_battle_rank</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>ランクアップ試練</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>ランクアップ試練</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Pre-invoke StartDrama: drama_balgas_training");</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>battle_normal</t>
-        </is>
-      </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>c_battle_normal</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>通常バトル</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>通常バトル</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartDrama("drama_balgas_training");</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>battle_debug</t>
-        </is>
-      </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>c_battle_debug</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>デバッグバトル</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>デバッグバトル</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] Post-invoke StartDrama");</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>main_menu</t>
-        </is>
-      </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>c_battle_back</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>戻る</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>戻る</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>battle_rank</t>
+          <t>battle_menu</t>
         </is>
       </c>
     </row>
@@ -2847,31 +2787,51 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>battle_rank_msg</t>
+          <t>battle_cat</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>バトルを選択してください。</t>
+          <t>バトルカテゴリを選択してください。</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>バトルを選択してください。</t>
+          <t>バトルカテゴリを選択してください。</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>battle_rank_choice</t>
+          <t>battle_rank</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>c_battle_rank</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>ランクアップ試練</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>ランクアップ試練</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>fight_rank_g_trial</t>
+          <t>battle_normal</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -2881,24 +2841,24 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>c_fight_rank_g_trial</t>
+          <t>c_battle_normal</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>屑肉の洗礼</t>
+          <t>通常バトル</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Baptism of Scrap Meat</t>
+          <t>通常バトル</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>fight_rank_f_trial</t>
+          <t>battle_debug</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -2908,24 +2868,24 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>c_fight_rank_f_trial</t>
+          <t>c_battle_debug</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>霜牙の試練</t>
+          <t>デバッグバトル</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Trial of the Frostfang</t>
+          <t>デバッグバトル</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>fight_rank_e_trial</t>
+          <t>main_menu</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -2935,105 +2895,60 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>c_fight_rank_e_trial</t>
+          <t>c_battle_back</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>錆びついた英雄</t>
+          <t>戻る</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>The Rusty Hero</t>
+          <t>戻る</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>fight_rank_d_trial</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>c_fight_rank_d_trial</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>観客の代弁者</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Voice of the Audience</t>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>battle_rank</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>fight_rank_c_trial</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>c_fight_rank_c_trial</t>
+          <t>battle_rank_msg</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>闘技場の鴉</t>
+          <t>バトルを選択してください。</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Ravens of the Coliseum</t>
+          <t>バトルを選択してください。</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>fight_rank_b_trial</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>c_fight_rank_b_trial</t>
-        </is>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>虚無の処刑人</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Void Executioner Null</t>
+          <t>battle_rank_choice</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>fight_rank_a_trial</t>
+          <t>fight_rank_g_trial</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -3043,24 +2958,24 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>c_fight_rank_a_trial</t>
+          <t>c_fight_rank_g_trial</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>黄金の戦鬼</t>
+          <t>屑肉の洗礼</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Golden War Demon</t>
+          <t>Baptism of Scrap Meat</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>fight_rank_s_trial</t>
+          <t>fight_rank_f_trial</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -3070,24 +2985,24 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>c_fight_rank_s_trial</t>
+          <t>c_fight_rank_f_trial</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>屠竜者への道</t>
+          <t>霜牙の試練</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Path to Dragon Slayer</t>
+          <t>Trial of the Frostfang</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>fight_final_astaroth</t>
+          <t>fight_rank_e_trial</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -3097,103 +3012,213 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>c_fight_final_astaroth</t>
+          <t>c_fight_rank_e_trial</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>竜神との対峙</t>
+          <t>錆びついた英雄</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Confrontation with the Dragon God</t>
+          <t>The Rusty Hero</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
+          <t>fight_rank_d_trial</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>c_fight_rank_d_trial</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>観客の代弁者</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Voice of the Audience</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>fight_rank_c_trial</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>c_fight_rank_c_trial</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>闘技場の鴉</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Ravens of the Coliseum</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>fight_rank_b_trial</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>c_fight_rank_b_trial</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>虚無の処刑人</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Void Executioner Null</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>fight_rank_a_trial</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>c_fight_rank_a_trial</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>黄金の戦鬼</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Golden War Demon</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>fight_rank_s_trial</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>c_fight_rank_s_trial</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>屠竜者への道</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Path to Dragon Slayer</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>fight_final_astaroth</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>c_fight_final_astaroth</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>竜神との対峙</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Confrontation with the Dragon God</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="inlineStr">
+        <is>
           <t>battle_menu</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
         <is>
           <t>c_back_battle_rank</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr">
+      <c r="I186" t="inlineStr">
         <is>
           <t>戻る</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr">
+      <c r="J186" t="inlineStr">
         <is>
           <t>Back</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>fight_rank_g_trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", tg);</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>fight_rank_f_trial</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", tg);</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>end</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>fight_rank_e_trial</t>
+          <t>fight_rank_g_trial</t>
         </is>
       </c>
     </row>
@@ -3205,7 +3230,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_e_trial", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_g_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3244,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>fight_rank_d_trial</t>
+          <t>fight_rank_f_trial</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3256,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_f_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3270,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>fight_rank_c_trial</t>
+          <t>fight_rank_e_trial</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3282,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_c_trial", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_e_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3296,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>fight_rank_b_trial</t>
+          <t>fight_rank_d_trial</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3308,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_b_trial", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3322,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>fight_rank_a_trial</t>
+          <t>fight_rank_c_trial</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3334,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_a_trial", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_c_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3348,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>fight_rank_s_trial</t>
+          <t>fight_rank_b_trial</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3360,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_s_trial", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_b_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3374,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>fight_final_astaroth</t>
+          <t>fight_rank_a_trial</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3386,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("final_astaroth", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_a_trial", tg);</t>
         </is>
       </c>
     </row>
@@ -3375,284 +3400,284 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
+          <t>fight_rank_s_trial</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_s_trial", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>fight_final_astaroth</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("final_astaroth", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
           <t>battle_normal</t>
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="F209" t="inlineStr">
+    <row r="215">
+      <c r="F215" t="inlineStr">
         <is>
           <t>sukutsu_debug_master</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>battle_normal_msg</t>
         </is>
       </c>
-      <c r="I209" t="inlineStr">
+      <c r="I215" t="inlineStr">
         <is>
           <t>バトルを選択してください。</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr">
+      <c r="J215" t="inlineStr">
         <is>
           <t>バトルを選択してください。</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>battle_normal_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>fight_stage_1</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>c_fight_stage_1</t>
-        </is>
-      </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>森の狼</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Forest Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>fight_stage_2</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>c_fight_stage_2</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>ケンタウロス</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Centaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>fight_stage_3</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>c_fight_stage_3</t>
-        </is>
-      </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>ミノタウロス</t>
-        </is>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Minotaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>fight_stage_4</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>c_fight_stage_4</t>
-        </is>
-      </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>竜との対峙</t>
-        </is>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>Dragon Confrontation</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>fight_balgas_training_battle</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>c_fight_balgas_training_battle</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>戦士の哲学</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Warrior's Philosophy</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>fight_upper_existence_battle</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>c_fight_upper_existence_battle</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>見えざる観客の供物</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Offering to the Unseen Audience</t>
+          <t>battle_normal_choice</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
+          <t>fight_stage_1</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>c_fight_stage_1</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>森の狼</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Forest Wolf</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>fight_stage_2</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>c_fight_stage_2</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>ケンタウロス</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Centaur</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>fight_stage_3</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>c_fight_stage_3</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>ミノタウロス</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Minotaur</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>fight_stage_4</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>c_fight_stage_4</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>竜との対峙</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Dragon Confrontation</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>fight_balgas_training_battle</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>c_fight_balgas_training_battle</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>戦士の哲学</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Warrior's Philosophy</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>fight_upper_existence_battle</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>c_fight_upper_existence_battle</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>見えざる観客の供物</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>Offering to the Unseen Audience</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="inlineStr">
+        <is>
           <t>battle_menu</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
         <is>
           <t>c_back_battle_normal</t>
         </is>
       </c>
-      <c r="I217" t="inlineStr">
+      <c r="I223" t="inlineStr">
         <is>
           <t>戻る</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr">
+      <c r="J223" t="inlineStr">
         <is>
           <t>Back</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>fight_stage_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_1", tg);</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>fight_stage_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_2", tg);</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>end</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>fight_stage_3</t>
+          <t>fight_stage_1</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3689,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_3", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_1", tg);</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3703,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>fight_stage_4</t>
+          <t>fight_stage_2</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3715,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_4", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_2", tg);</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3729,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>fight_balgas_training_battle</t>
+          <t>fight_stage_3</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3741,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("balgas_training_battle", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_3", tg);</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3755,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>fight_upper_existence_battle</t>
+          <t>fight_stage_4</t>
         </is>
       </c>
     </row>
@@ -3742,7 +3767,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("upper_existence_battle", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("stage_4", tg);</t>
         </is>
       </c>
     </row>
@@ -3756,230 +3781,230 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
+          <t>fight_balgas_training_battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("balgas_training_battle", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>fight_upper_existence_battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("upper_existence_battle", tg);</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
           <t>battle_debug</t>
         </is>
       </c>
     </row>
-    <row r="237">
-      <c r="F237" t="inlineStr">
+    <row r="243">
+      <c r="F243" t="inlineStr">
         <is>
           <t>sukutsu_debug_master</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
+      <c r="H243" t="inlineStr">
         <is>
           <t>battle_debug_msg</t>
         </is>
       </c>
-      <c r="I237" t="inlineStr">
+      <c r="I243" t="inlineStr">
         <is>
           <t>バトルを選択してください。</t>
         </is>
       </c>
-      <c r="J237" t="inlineStr">
+      <c r="J243" t="inlineStr">
         <is>
           <t>バトルを選択してください。</t>
         </is>
       </c>
     </row>
-    <row r="238">
-      <c r="B238" t="inlineStr">
+    <row r="244">
+      <c r="B244" t="inlineStr">
         <is>
           <t>battle_debug_choice</t>
         </is>
       </c>
     </row>
-    <row r="239">
-      <c r="B239" t="inlineStr">
+    <row r="245">
+      <c r="B245" t="inlineStr">
         <is>
           <t>fight_debug_weak</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr">
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
         <is>
           <t>c_fight_debug_weak</t>
         </is>
       </c>
-      <c r="I239" t="inlineStr">
+      <c r="I245" t="inlineStr">
         <is>
           <t>[DEBUG] 弱い敵</t>
         </is>
       </c>
-      <c r="J239" t="inlineStr">
+      <c r="J245" t="inlineStr">
         <is>
           <t>[DEBUG] Weak Enemy</t>
         </is>
       </c>
     </row>
-    <row r="240">
-      <c r="B240" t="inlineStr">
+    <row r="246">
+      <c r="B246" t="inlineStr">
         <is>
           <t>fight_debug_strong</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H240" t="inlineStr">
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
         <is>
           <t>c_fight_debug_strong</t>
         </is>
       </c>
-      <c r="I240" t="inlineStr">
+      <c r="I246" t="inlineStr">
         <is>
           <t>[DEBUG] 強い敵</t>
         </is>
       </c>
-      <c r="J240" t="inlineStr">
+      <c r="J246" t="inlineStr">
         <is>
           <t>[DEBUG] Strong Enemy</t>
         </is>
       </c>
     </row>
-    <row r="241">
-      <c r="B241" t="inlineStr">
+    <row r="247">
+      <c r="B247" t="inlineStr">
         <is>
           <t>fight_debug_horde</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr">
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
         <is>
           <t>c_fight_debug_horde</t>
         </is>
       </c>
-      <c r="I241" t="inlineStr">
+      <c r="I247" t="inlineStr">
         <is>
           <t>[DEBUG] 敵の群れ</t>
         </is>
       </c>
-      <c r="J241" t="inlineStr">
+      <c r="J247" t="inlineStr">
         <is>
           <t>[DEBUG] Enemy Horde</t>
         </is>
       </c>
     </row>
-    <row r="242">
-      <c r="B242" t="inlineStr">
+    <row r="248">
+      <c r="B248" t="inlineStr">
         <is>
           <t>fight_debug_gimmick</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr">
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
         <is>
           <t>c_fight_debug_gimmick</t>
         </is>
       </c>
-      <c r="I242" t="inlineStr">
+      <c r="I248" t="inlineStr">
         <is>
           <t>[DEBUG] ギミックテスト</t>
         </is>
       </c>
-      <c r="J242" t="inlineStr">
+      <c r="J248" t="inlineStr">
         <is>
           <t>[DEBUG] Gimmick Test</t>
         </is>
       </c>
     </row>
-    <row r="243">
-      <c r="B243" t="inlineStr">
+    <row r="249">
+      <c r="B249" t="inlineStr">
         <is>
           <t>battle_menu</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr">
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
         <is>
           <t>c_back_battle_debug</t>
         </is>
       </c>
-      <c r="I243" t="inlineStr">
+      <c r="I249" t="inlineStr">
         <is>
           <t>戻る</t>
         </is>
       </c>
-      <c r="J243" t="inlineStr">
+      <c r="J249" t="inlineStr">
         <is>
           <t>Back</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>fight_debug_weak</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_weak", tg);</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>fight_debug_strong</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_strong", tg);</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>end</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>fight_debug_horde</t>
+          <t>fight_debug_weak</t>
         </is>
       </c>
     </row>
@@ -3991,7 +4016,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_horde", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_weak", tg);</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4030,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>fight_debug_gimmick</t>
+          <t>fight_debug_strong</t>
         </is>
       </c>
     </row>
@@ -4017,7 +4042,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_gimmick", tg);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_strong", tg);</t>
         </is>
       </c>
     </row>
@@ -4031,288 +4056,268 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>flags_menu</t>
+          <t>fight_debug_horde</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>flags_info</t>
-        </is>
-      </c>
-      <c r="I257" t="inlineStr">
-        <is>
-          <t>フラグ操作を選択してください。</t>
-        </is>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>フラグ操作を選択してください。</t>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_horde", tg);</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>set_rank_s</t>
-        </is>
-      </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>c_set_rank_s</t>
-        </is>
-      </c>
-      <c r="I258" t="inlineStr">
-        <is>
-          <t>ランクSに設定</t>
-        </is>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>ランクSに設定</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>set_all_quests</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>c_set_quests</t>
-        </is>
-      </c>
-      <c r="I259" t="inlineStr">
-        <is>
-          <t>全クエスト完了</t>
-        </is>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>全クエスト完了</t>
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>fight_debug_gimmick</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>set_relations</t>
-        </is>
-      </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>c_set_relations</t>
-        </is>
-      </c>
-      <c r="I260" t="inlineStr">
-        <is>
-          <t>関係値MAX</t>
-        </is>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>関係値MAX</t>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("debug_gimmick", tg);</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>main_menu</t>
-        </is>
-      </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>c_flags_back</t>
-        </is>
-      </c>
-      <c r="I261" t="inlineStr">
-        <is>
-          <t>戻る</t>
-        </is>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>戻る</t>
+          <t>end</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
+          <t>flags_menu</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>flags_info</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>フラグ操作を選択してください。</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>フラグ操作を選択してください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" t="inlineStr">
+        <is>
           <t>set_rank_s</t>
         </is>
       </c>
-    </row>
-    <row r="263">
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>chitsii.arena.player.rank,8</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
       <c r="D264" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>sukutsu_gladiator,1</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>c_set_rank_s</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>ランクSに設定</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>ランクSに設定</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>set_all_quests</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>rank_set</t>
+          <t>c_set_quests</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>ランクをSに設定しました。</t>
+          <t>全クエスト完了</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>ランクをSに設定しました。</t>
+          <t>全クエスト完了</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
+          <t>scenario_flags</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>c_scenario_flags</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>シナリオ分岐フラグ</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>シナリオ分岐フラグ</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>main_menu</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>c_flags_back</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>戻る</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>戻る</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>set_rank_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.rank,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>sukutsu_gladiator,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>rank_set</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>ランクをSに設定しました。</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>ランクをSに設定しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" t="inlineStr">
+        <is>
           <t>flags_menu</t>
         </is>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
+    <row r="273">
+      <c r="A273" t="inlineStr">
         <is>
           <t>set_all_quests</t>
         </is>
       </c>
     </row>
-    <row r="268">
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
+    <row r="274">
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaQuestManager.Instance.DebugCompleteAllQuests();</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>quests_set</t>
-        </is>
-      </c>
-      <c r="I269" t="inlineStr">
-        <is>
-          <t>全クエストを完了しました。</t>
-        </is>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>全クエストを完了しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>flags_menu</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>set_relations</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>sukutsu_debug_master</t>
-        </is>
-      </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>rel_set</t>
-        </is>
-      </c>
-      <c r="I272" t="inlineStr">
-        <is>
-          <t>（旧システム: 関係値は削除されました）</t>
-        </is>
-      </c>
-      <c r="J272" t="inlineStr">
-        <is>
-          <t>（旧システム: 関係値は削除されました）</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>flags_menu</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>end</t>
         </is>
       </c>
     </row>
@@ -4324,22 +4329,588 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
+          <t>quests_set</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>全クエストを完了しました。</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>全クエストを完了しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>flags_menu</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>scenario_flags</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>scenario_info</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>シナリオ分岐フラグを設定します。</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>シナリオ分岐フラグを設定します。</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>set_balgas_killed</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>c_balgas_killed</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>バルガス殺害ON</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>バルガス殺害ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>set_balgas_alive</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>c_balgas_alive</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>バルガス殺害OFF</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>バルガス殺害OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>set_lily_hostile</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>c_lily_hostile</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>リリィ離反ON</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>リリィ離反ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>set_lily_friendly</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>c_lily_friendly</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>リリィ離反OFF</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>リリィ離反OFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>set_worst_case</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>c_worst_case</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>最悪ルート（両方ON）</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>最悪ルート（両方ON）</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>reset_all_flags</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>c_reset_flags</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>全てリセット</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>全てリセット</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>flags_menu</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>c_scenario_back</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>戻る</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>戻る</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>set_balgas_killed</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.balgas_killed,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>balgas_killed_set</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>バルガス殺害フラグをONにしました。</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>バルガス殺害フラグをONにしました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>scenario_flags</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>set_balgas_alive</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.balgas_killed,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>balgas_alive_set</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>バルガス殺害フラグをOFFにしました。</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>バルガス殺害フラグをOFFにしました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>scenario_flags</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>set_lily_hostile</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_hostile,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>lily_hostile_set</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>リリィ離反フラグをONにしました。</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>リリィ離反フラグをONにしました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>scenario_flags</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>set_lily_friendly</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_hostile,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>lily_friendly_set</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>リリィ離反フラグをOFFにしました。</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>リリィ離反フラグをOFFにしました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>scenario_flags</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>set_worst_case</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.balgas_killed,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_hostile,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>worst_case_set</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>最悪ルート設定完了（バルガス殺害+リリィ離反）</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>最悪ルート設定完了（バルガス殺害+リリィ離反）</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>scenario_flags</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>reset_all_flags</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.balgas_killed,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>chitsii.arena.player.lily_hostile,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>flags_reset</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>全フラグをリセットしました。</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>全フラグをリセットしました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>scenario_flags</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>sukutsu_debug_master</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
           <t>debug_bye</t>
         </is>
       </c>
-      <c r="I275" t="inlineStr">
+      <c r="I313" t="inlineStr">
         <is>
           <t>デバッグメニューを終了します。</t>
         </is>
       </c>
-      <c r="J275" t="inlineStr">
+      <c r="J313" t="inlineStr">
         <is>
           <t>デバッグメニューを終了します。</t>
         </is>
       </c>
     </row>
-    <row r="276">
-      <c r="D276" t="inlineStr">
+    <row r="314">
+      <c r="D314" t="inlineStr">
         <is>
           <t>end</t>
         </is>
